--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD4F89-C93A-4D72-9845-9CAEF2E69D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A94F2-FB50-4A4F-8397-5DE61D3973CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>{lb, lbf, ly, ljf, ljt} = {1, 1, 10, 0.1, 0.5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>ePEHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ljf, ljt}={0.1,0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ljf, ljt}={0.1,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ljf, ljt}={0,0.5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +75,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +91,23 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,8 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,20 +419,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="6" max="11" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -410,16 +463,28 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.88</v>
@@ -433,55 +498,409 @@
       <c r="E3">
         <v>0.99</v>
       </c>
-      <c r="F3">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.81110000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F3" s="2">
+        <v>0.3851</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.3851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0.1077</v>
-      </c>
-      <c r="G4">
-        <v>0.1079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.2707</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.27179999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0.10829999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.1087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>0.1084</v>
-      </c>
-      <c r="G6">
-        <v>0.10879999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="F7">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.1076</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.189</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1925</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.19389999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.18149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1641</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.17050000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.16039999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.1479</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.15140000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.1389</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.1328</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1246</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.13239999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.1234</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.1139</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1157</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.1129</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.1023</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1041</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.1037</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9.64E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>7.51E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6.59E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.74E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E444372-B74B-4F51-BE63-434EEF1FA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508121C-8E12-41C8-9BFD-A75F0B54A7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -772,7 +772,7 @@
         <v>0.1414</v>
       </c>
       <c r="G8" s="5">
-        <v>0.14230000000000001</v>
+        <v>0.18229999999999999</v>
       </c>
       <c r="H8" s="5">
         <v>0.16470000000000001</v>
@@ -836,17 +836,125 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.1482</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.2147</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.2661</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.21959999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.34770000000000001</v>
       </c>
     </row>
   </sheetData>
